--- a/Aruco Tags/Localization Calibration.xlsx
+++ b/Aruco Tags/Localization Calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\UCLA\EE\183DB\ECE183DB_Project\Aruco Tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E12AE7-123A-412F-86BE-354EFD518BAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265B4BBA-7673-4C7B-B49A-098457D669B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3AE92722-FA03-49D0-9608-37E8B20F09B3}"/>
   </bookViews>
